--- a/data/trans_orig/IPAQ_DICO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_DICO-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>56917</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>42204</v>
+        <v>43502</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>72947</v>
+        <v>71634</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1326463191107551</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0983569569378583</v>
+        <v>0.1013820936575905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1700021255835426</v>
+        <v>0.1669426889138543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -763,19 +763,19 @@
         <v>21357</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13879</v>
+        <v>13649</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31885</v>
+        <v>31818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06153661267871012</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03999094957534263</v>
+        <v>0.0393280441274197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09187266692588797</v>
+        <v>0.09168099856834055</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>72</v>
@@ -784,19 +784,19 @@
         <v>78274</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61460</v>
+        <v>61618</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>97490</v>
+        <v>97675</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1008495394294852</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07918584750803977</v>
+        <v>0.07939020047023793</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.125607292022671</v>
+        <v>0.1258456420496678</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>372175</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>356145</v>
+        <v>357458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>386888</v>
+        <v>385590</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8673536808892449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8299978744164586</v>
+        <v>0.8330573110861458</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9016430430621422</v>
+        <v>0.8986179063424096</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>311</v>
@@ -834,19 +834,19 @@
         <v>325698</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>315170</v>
+        <v>315237</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>333176</v>
+        <v>333406</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9384633873212899</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9081273330741122</v>
+        <v>0.9083190014316592</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9600090504246573</v>
+        <v>0.9606719558725801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>656</v>
@@ -855,19 +855,19 @@
         <v>697873</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678657</v>
+        <v>678472</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>714687</v>
+        <v>714529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8991504605705148</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8743927079773288</v>
+        <v>0.8741543579503321</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9208141524919602</v>
+        <v>0.9206097995297621</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>53185</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39088</v>
+        <v>39823</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68397</v>
+        <v>67644</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1409882496582772</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1036195095752828</v>
+        <v>0.1055670607036445</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1813161178320571</v>
+        <v>0.1793180181297112</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>24</v>
@@ -980,19 +980,19 @@
         <v>25448</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>17449</v>
+        <v>15663</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>37538</v>
+        <v>36634</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06835924919939577</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04687177349236132</v>
+        <v>0.04207475287017318</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1008340898147275</v>
+        <v>0.09840754604900451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>72</v>
@@ -1001,19 +1001,19 @@
         <v>78633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>61976</v>
+        <v>62517</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97752</v>
+        <v>100924</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1049137654942929</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08268953495423371</v>
+        <v>0.08341179906381201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1304226972839513</v>
+        <v>0.1346554111226654</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>324042</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>308830</v>
+        <v>309583</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>338139</v>
+        <v>337404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8590117503417228</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8186838821679429</v>
+        <v>0.8206819818702887</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.896380490424717</v>
+        <v>0.8944329392963555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>328</v>
@@ -1051,19 +1051,19 @@
         <v>346825</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>334735</v>
+        <v>335639</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>354824</v>
+        <v>356610</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9316407508006043</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8991659101852726</v>
+        <v>0.9015924539509955</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9531282265076387</v>
+        <v>0.9579252471298269</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>634</v>
@@ -1072,19 +1072,19 @@
         <v>670867</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>651748</v>
+        <v>648576</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>687524</v>
+        <v>686983</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8950862345057071</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8695773027160485</v>
+        <v>0.8653445888773348</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9173104650457662</v>
+        <v>0.9165882009361881</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>64077</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>47886</v>
+        <v>50090</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80805</v>
+        <v>81046</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1227739628140871</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09175099247883543</v>
+        <v>0.09597281836361284</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1548239142098913</v>
+        <v>0.1552861649618876</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -1197,19 +1197,19 @@
         <v>8813</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4006</v>
+        <v>4147</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16452</v>
+        <v>17236</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05305371264657802</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02411342239732921</v>
+        <v>0.02496398996694713</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09903474635189502</v>
+        <v>0.1037562898015647</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>70</v>
@@ -1218,19 +1218,19 @@
         <v>72891</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56895</v>
+        <v>59149</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89564</v>
+        <v>90997</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1059403739724858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08269137973819654</v>
+        <v>0.08596810884570294</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1301734825456364</v>
+        <v>0.1322568614602212</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>457837</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>441109</v>
+        <v>440868</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>474028</v>
+        <v>471824</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.877226037185913</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8451760857901083</v>
+        <v>0.8447138350381121</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9082490075211644</v>
+        <v>0.9040271816363871</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>145</v>
@@ -1268,19 +1268,19 @@
         <v>157310</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>149671</v>
+        <v>148887</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162117</v>
+        <v>161976</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.946946287353422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.900965253648105</v>
+        <v>0.8962437101984353</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9758865776026707</v>
+        <v>0.9750360100330528</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>585</v>
@@ -1289,19 +1289,19 @@
         <v>615145</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>598472</v>
+        <v>597039</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>631141</v>
+        <v>628887</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8940596260275142</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8698265174543637</v>
+        <v>0.8677431385397788</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9173086202618035</v>
+        <v>0.9140318911542971</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>140691</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122415</v>
+        <v>117800</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>165727</v>
+        <v>162680</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1223785334666918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1064817789587067</v>
+        <v>0.1024666045678078</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1441553779839203</v>
+        <v>0.1415053971865534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -1414,19 +1414,19 @@
         <v>58548</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>45795</v>
+        <v>44951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>74945</v>
+        <v>73885</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07089205104421076</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05544986270988866</v>
+        <v>0.05442792931702232</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09074584263519565</v>
+        <v>0.08946252478408133</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>194</v>
@@ -1435,19 +1435,19 @@
         <v>199239</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>174254</v>
+        <v>171171</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224569</v>
+        <v>225830</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1008542932279577</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08820688212278482</v>
+        <v>0.08664641235656419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1136763191351059</v>
+        <v>0.1143145853757032</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>1008947</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>983911</v>
+        <v>986958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1027223</v>
+        <v>1031838</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8776214665333082</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8558446220160795</v>
+        <v>0.8584946028134466</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8935182210412932</v>
+        <v>0.8975333954321918</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>740</v>
@@ -1485,19 +1485,19 @@
         <v>767328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>750931</v>
+        <v>751991</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>780081</v>
+        <v>780925</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9291079489557892</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9092541573648044</v>
+        <v>0.9105374752159187</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9445501372901114</v>
+        <v>0.9455720706829777</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1707</v>
@@ -1506,19 +1506,19 @@
         <v>1776275</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1750945</v>
+        <v>1749684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1801260</v>
+        <v>1804343</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8991457067720423</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8863236808648941</v>
+        <v>0.8856854146242966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9117931178772153</v>
+        <v>0.9133535876434358</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>85267</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69464</v>
+        <v>69296</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102845</v>
+        <v>104635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1373707257985567</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1119111895670131</v>
+        <v>0.1116402918907641</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1656910787235372</v>
+        <v>0.1685742319980599</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>42</v>
@@ -1631,19 +1631,19 @@
         <v>43011</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31420</v>
+        <v>31002</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57553</v>
+        <v>55870</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0582608026538553</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04256050850213494</v>
+        <v>0.04199358763506515</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07795889752884737</v>
+        <v>0.07567989691055937</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>123</v>
@@ -1652,19 +1652,19 @@
         <v>128278</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107939</v>
+        <v>107891</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>153242</v>
+        <v>150158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0943945781044135</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07942797997383598</v>
+        <v>0.07939279354802536</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1127651336633435</v>
+        <v>0.1104958701643902</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>535439</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>517861</v>
+        <v>516071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>551242</v>
+        <v>551410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8626292742014433</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8343089212764628</v>
+        <v>0.8314257680019402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8880888104329869</v>
+        <v>0.8883597081092367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>657</v>
@@ -1702,19 +1702,19 @@
         <v>695233</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>680691</v>
+        <v>682374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>706824</v>
+        <v>707242</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9417391973461448</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9220411024711528</v>
+        <v>0.9243201030894408</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9574394914978652</v>
+        <v>0.9580064123649356</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1173</v>
@@ -1723,19 +1723,19 @@
         <v>1230672</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1205708</v>
+        <v>1208792</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1251011</v>
+        <v>1251059</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9056054218955865</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8872348663366567</v>
+        <v>0.8895041298356098</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9205720200261641</v>
+        <v>0.9206072064519747</v>
       </c>
     </row>
     <row r="18">
@@ -1827,19 +1827,19 @@
         <v>74926</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61251</v>
+        <v>61048</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>90767</v>
+        <v>91846</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2609329156674623</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2133095544470259</v>
+        <v>0.2126048409717348</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3161022112771542</v>
+        <v>0.3198594588836206</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -1848,19 +1848,19 @@
         <v>40216</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>29017</v>
+        <v>28785</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54139</v>
+        <v>53197</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03716772510700576</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02681684813756813</v>
+        <v>0.02660274753642093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05003458658790581</v>
+        <v>0.04916473457479859</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>110</v>
@@ -1869,19 +1869,19 @@
         <v>115142</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>95898</v>
+        <v>95122</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136585</v>
+        <v>135128</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08409622094996382</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07004124975548849</v>
+        <v>0.06947387661891667</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09975742879380835</v>
+        <v>0.09869334735330938</v>
       </c>
     </row>
     <row r="20">
@@ -1898,19 +1898,19 @@
         <v>212219</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196378</v>
+        <v>195299</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>225894</v>
+        <v>226097</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7390670843325378</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6838977887228459</v>
+        <v>0.6801405411163794</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7866904455529741</v>
+        <v>0.7873951590282653</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>953</v>
@@ -1919,19 +1919,19 @@
         <v>1041809</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1027886</v>
+        <v>1028828</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1053008</v>
+        <v>1053240</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9628322748929943</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9499654134120942</v>
+        <v>0.9508352654252015</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9731831518624319</v>
+        <v>0.9733972524635791</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1154</v>
@@ -1940,19 +1940,19 @@
         <v>1254028</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1232585</v>
+        <v>1234042</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1273272</v>
+        <v>1274048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9159037790500362</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9002425712061919</v>
+        <v>0.901306652646691</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9299587502445115</v>
+        <v>0.9305261233810833</v>
       </c>
     </row>
     <row r="21">
@@ -2044,19 +2044,19 @@
         <v>475063</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>437334</v>
+        <v>433446</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>524195</v>
+        <v>517960</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1403136293000879</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1291700860234719</v>
+        <v>0.1280218721327187</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1548251291471091</v>
+        <v>0.1529837501234319</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>192</v>
@@ -2065,19 +2065,19 @@
         <v>197393</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>172866</v>
+        <v>170396</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>222413</v>
+        <v>225570</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05589356206716652</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04894844403262539</v>
+        <v>0.04824912391004466</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0629780698129332</v>
+        <v>0.06387205760116074</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>641</v>
@@ -2086,19 +2086,19 @@
         <v>672456</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>623482</v>
+        <v>627511</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>727502</v>
+        <v>729465</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09721346258592353</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0901334480228438</v>
+        <v>0.09071592269022893</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1051710862726598</v>
+        <v>0.1054549208429251</v>
       </c>
     </row>
     <row r="23">
@@ -2115,19 +2115,19 @@
         <v>2910659</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2861527</v>
+        <v>2867762</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2948388</v>
+        <v>2952276</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8596863706999121</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8451748708528911</v>
+        <v>0.8470162498765683</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8708299139765281</v>
+        <v>0.8719781278672815</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3134</v>
@@ -2136,19 +2136,19 @@
         <v>3334203</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3309183</v>
+        <v>3306026</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3358730</v>
+        <v>3361200</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9441064379328334</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9370219301870667</v>
+        <v>0.9361279423988392</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9510515559673746</v>
+        <v>0.9517508760899553</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>5909</v>
@@ -2157,19 +2157,19 @@
         <v>6244862</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6189816</v>
+        <v>6187853</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6293836</v>
+        <v>6289807</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9027865374140764</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.89482891372734</v>
+        <v>0.8945450791570748</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9098665519771562</v>
+        <v>0.909284077309771</v>
       </c>
     </row>
     <row r="24">
@@ -2503,19 +2503,19 @@
         <v>154567</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>134318</v>
+        <v>132500</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>178841</v>
+        <v>177393</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2807148087142987</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2439395992377275</v>
+        <v>0.2406385562154464</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3247998743714766</v>
+        <v>0.3221700811032391</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>161</v>
@@ -2524,19 +2524,19 @@
         <v>118219</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>101301</v>
+        <v>101367</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>136451</v>
+        <v>137178</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2420492119731507</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2074094351759578</v>
+        <v>0.2075454034398299</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.279377692751958</v>
+        <v>0.2808665751273902</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>312</v>
@@ -2545,19 +2545,19 @@
         <v>272786</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246296</v>
+        <v>244172</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>302145</v>
+        <v>301214</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2625394781007627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2370444180953798</v>
+        <v>0.2349998429520164</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2907955762939581</v>
+        <v>0.2898995037765836</v>
       </c>
     </row>
     <row r="5">
@@ -2574,19 +2574,19 @@
         <v>396051</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>371777</v>
+        <v>373225</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>416300</v>
+        <v>418118</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7192851912857015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6752001256285234</v>
+        <v>0.6778299188967605</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7560604007622725</v>
+        <v>0.7593614437845535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>525</v>
@@ -2595,19 +2595,19 @@
         <v>370192</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>351960</v>
+        <v>351233</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>387110</v>
+        <v>387044</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7579507880268493</v>
+        <v>0.7579507880268492</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7206223072480421</v>
+        <v>0.7191334248726099</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7925905648240422</v>
+        <v>0.7924545965601701</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>928</v>
@@ -2616,19 +2616,19 @@
         <v>766243</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>736884</v>
+        <v>737815</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>792733</v>
+        <v>794857</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7374605218992374</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7092044237060419</v>
+        <v>0.7101004962234161</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7629555819046201</v>
+        <v>0.7650001570479836</v>
       </c>
     </row>
     <row r="6">
@@ -2720,19 +2720,19 @@
         <v>147506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>126250</v>
+        <v>126682</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171945</v>
+        <v>170686</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3052618960189477</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2612721181944754</v>
+        <v>0.2621663641689983</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.355837092871939</v>
+        <v>0.3532314710820246</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>114</v>
@@ -2741,19 +2741,19 @@
         <v>77604</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>64952</v>
+        <v>65500</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>91186</v>
+        <v>92403</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1833983681819525</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1534999816145034</v>
+        <v>0.154793064436842</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2154962197596517</v>
+        <v>0.2183738583070871</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>254</v>
@@ -2762,19 +2762,19 @@
         <v>225110</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>200210</v>
+        <v>199486</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>253804</v>
+        <v>250568</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2483684261059265</v>
+        <v>0.2483684261059264</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2208960424464366</v>
+        <v>0.2200968856877749</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2800269920816835</v>
+        <v>0.2764563471879701</v>
       </c>
     </row>
     <row r="8">
@@ -2791,19 +2791,19 @@
         <v>335706</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>311267</v>
+        <v>312526</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>356962</v>
+        <v>356530</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.6947381039810523</v>
+        <v>0.6947381039810524</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6441629071280609</v>
+        <v>0.6467685289179753</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7387278818055244</v>
+        <v>0.7378336358310017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>476</v>
@@ -2812,19 +2812,19 @@
         <v>345539</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>331957</v>
+        <v>330740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>358191</v>
+        <v>357643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8166016318180475</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7845037802403482</v>
+        <v>0.7816261416929126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8465000183854965</v>
+        <v>0.8452069355631581</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>817</v>
@@ -2833,19 +2833,19 @@
         <v>681245</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>652551</v>
+        <v>655787</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>706145</v>
+        <v>706869</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7516315738940738</v>
+        <v>0.7516315738940735</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7199730079183168</v>
+        <v>0.7235436528120298</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7791039575535637</v>
+        <v>0.779903114312225</v>
       </c>
     </row>
     <row r="9">
@@ -2937,19 +2937,19 @@
         <v>130470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>111114</v>
+        <v>110726</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150127</v>
+        <v>152120</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2766466225964487</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.235603966958665</v>
+        <v>0.2347814842993261</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3183273867968255</v>
+        <v>0.3225532620808009</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -2958,19 +2958,19 @@
         <v>28425</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20987</v>
+        <v>21347</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36404</v>
+        <v>37519</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1516013777657109</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.111932825209945</v>
+        <v>0.1138539473865479</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1941604074752761</v>
+        <v>0.2001046992604984</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>176</v>
@@ -2979,19 +2979,19 @@
         <v>158895</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>139303</v>
+        <v>138174</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>184404</v>
+        <v>180675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2410748978860623</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2113506008984539</v>
+        <v>0.2096377672486029</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2797782801573604</v>
+        <v>0.2741205440665815</v>
       </c>
     </row>
     <row r="11">
@@ -3008,19 +3008,19 @@
         <v>341142</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>321485</v>
+        <v>319492</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>360498</v>
+        <v>360886</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7233533774035514</v>
+        <v>0.7233533774035513</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.681672613203175</v>
+        <v>0.6774467379191994</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7643960330413352</v>
+        <v>0.765218515700674</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>243</v>
@@ -3029,19 +3029,19 @@
         <v>159072</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>151093</v>
+        <v>149978</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166510</v>
+        <v>166150</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8483986222342891</v>
+        <v>0.848398622234289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.805839592524724</v>
+        <v>0.7998953007395017</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8880671747900551</v>
+        <v>0.8861460526134523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>601</v>
@@ -3050,19 +3050,19 @@
         <v>500214</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>474705</v>
+        <v>478434</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>519806</v>
+        <v>520935</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7589251021139378</v>
+        <v>0.7589251021139377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7202217198426391</v>
+        <v>0.7258794559334184</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7886493991015459</v>
+        <v>0.7903622327513971</v>
       </c>
     </row>
     <row r="12">
@@ -3154,19 +3154,19 @@
         <v>269230</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>236804</v>
+        <v>239920</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>304111</v>
+        <v>302627</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2378686207562354</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2092199394976489</v>
+        <v>0.211973063538688</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2686862425274599</v>
+        <v>0.2673751438064594</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>271</v>
@@ -3175,19 +3175,19 @@
         <v>181957</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>161162</v>
+        <v>162356</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>205219</v>
+        <v>203589</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2112798143240162</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1871346184439282</v>
+        <v>0.1885200438156547</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2382906874177985</v>
+        <v>0.2363981428874252</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>525</v>
@@ -3196,19 +3196,19 @@
         <v>451186</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>414353</v>
+        <v>414933</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>492493</v>
+        <v>488823</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2263794280958193</v>
+        <v>0.2263794280958194</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2078986063553323</v>
+        <v>0.2081895949897934</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.247104768374666</v>
+        <v>0.2452630598054299</v>
       </c>
     </row>
     <row r="14">
@@ -3225,19 +3225,19 @@
         <v>862613</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>827732</v>
+        <v>829216</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>895039</v>
+        <v>891923</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7621313792437645</v>
+        <v>0.7621313792437646</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.73131375747254</v>
+        <v>0.7326248561935403</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7907800605023508</v>
+        <v>0.7880269364613121</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>959</v>
@@ -3246,19 +3246,19 @@
         <v>679254</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>655992</v>
+        <v>657622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>700049</v>
+        <v>698855</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7887201856759838</v>
+        <v>0.7887201856759839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7617093125822014</v>
+        <v>0.7636018571125749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8128653815560719</v>
+        <v>0.8114799561843454</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1823</v>
@@ -3267,19 +3267,19 @@
         <v>1541868</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1500561</v>
+        <v>1504231</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1578701</v>
+        <v>1578121</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7736205719041807</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7528952316253339</v>
+        <v>0.7547369401945699</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7921013936446677</v>
+        <v>0.7918104050102065</v>
       </c>
     </row>
     <row r="15">
@@ -3371,19 +3371,19 @@
         <v>124795</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>104172</v>
+        <v>101908</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150094</v>
+        <v>147483</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2197233809941945</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1834123022499866</v>
+        <v>0.1794273320390408</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2642664384310449</v>
+        <v>0.2596689444634839</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>215</v>
@@ -3392,19 +3392,19 @@
         <v>141917</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>123189</v>
+        <v>125116</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>160530</v>
+        <v>161112</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1708090206132118</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.148268529176373</v>
+        <v>0.1505882464181331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1932112956766674</v>
+        <v>0.1939123415943033</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>321</v>
@@ -3413,19 +3413,19 @@
         <v>266712</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>237738</v>
+        <v>239126</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>298212</v>
+        <v>298801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1906698338237588</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1699571067649648</v>
+        <v>0.170948836195088</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2131889286102753</v>
+        <v>0.2136099630625863</v>
       </c>
     </row>
     <row r="17">
@@ -3442,19 +3442,19 @@
         <v>443169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>417870</v>
+        <v>420481</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>463792</v>
+        <v>466056</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7802766190058055</v>
+        <v>0.7802766190058054</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7357335615689553</v>
+        <v>0.7403310555365163</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8165876977500134</v>
+        <v>0.8205726679609591</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1075</v>
@@ -3463,19 +3463,19 @@
         <v>688933</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>670320</v>
+        <v>669738</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>707661</v>
+        <v>705734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8291909793867882</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8067887043233324</v>
+        <v>0.8060876584056966</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8517314708236269</v>
+        <v>0.8494117535818668</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1516</v>
@@ -3484,19 +3484,19 @@
         <v>1132102</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1100602</v>
+        <v>1100013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1161076</v>
+        <v>1159688</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8093301661762413</v>
+        <v>0.809330166176241</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7868110713897248</v>
+        <v>0.7863900369374137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8300428932350353</v>
+        <v>0.8290511638049116</v>
       </c>
     </row>
     <row r="18">
@@ -3588,19 +3588,19 @@
         <v>95437</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>74560</v>
+        <v>71222</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>120703</v>
+        <v>118582</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4022989758069536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3142985851528247</v>
+        <v>0.3002269107427019</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5088051075938607</v>
+        <v>0.4998652113788813</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>122</v>
@@ -3609,19 +3609,19 @@
         <v>83691</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>68911</v>
+        <v>68083</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>105151</v>
+        <v>103659</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.09912638254528089</v>
+        <v>0.0991263825452809</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08162101861215101</v>
+        <v>0.0806399719175675</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1245454358460915</v>
+        <v>0.1227776904741408</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>166</v>
@@ -3630,19 +3630,19 @@
         <v>179127</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>149814</v>
+        <v>151361</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>213669</v>
+        <v>211000</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1656269563890786</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1385226734103624</v>
+        <v>0.1399534241748772</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1975657206849382</v>
+        <v>0.1950974301024751</v>
       </c>
     </row>
     <row r="20">
@@ -3659,19 +3659,19 @@
         <v>141791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>116525</v>
+        <v>118646</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>162668</v>
+        <v>166006</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5977010241930465</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4911948924061392</v>
+        <v>0.5001347886211187</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6857014148471752</v>
+        <v>0.699773089257298</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1037</v>
@@ -3680,19 +3680,19 @@
         <v>760590</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>739130</v>
+        <v>740622</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>775370</v>
+        <v>776198</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9008736174547189</v>
+        <v>0.9008736174547191</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8754545641539083</v>
+        <v>0.8772223095258593</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9183789813878487</v>
+        <v>0.9193600280824323</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1105</v>
@@ -3701,19 +3701,19 @@
         <v>902382</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>867840</v>
+        <v>870509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>931695</v>
+        <v>930148</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8343730436109216</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8024342793150616</v>
+        <v>0.8049025698975247</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8614773265896375</v>
+        <v>0.8600465758251226</v>
       </c>
     </row>
     <row r="21">
@@ -3805,19 +3805,19 @@
         <v>922004</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>859179</v>
+        <v>864645</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>979086</v>
+        <v>982036</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2678316137282001</v>
+        <v>0.2678316137282002</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2495817806412196</v>
+        <v>0.2511695466743026</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2844134532783356</v>
+        <v>0.2852702668722754</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>929</v>
@@ -3826,19 +3826,19 @@
         <v>631812</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>591880</v>
+        <v>591528</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>675291</v>
+        <v>673500</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1737946198062938</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1628103244291898</v>
+        <v>0.1627136779276517</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1857545536525911</v>
+        <v>0.1852619238738254</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1754</v>
@@ -3847,19 +3847,19 @@
         <v>1553816</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1482611</v>
+        <v>1480320</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1628113</v>
+        <v>1622019</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2195315621353542</v>
+        <v>0.2195315621353543</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2094713441703048</v>
+        <v>0.2091476470658953</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2300286444136194</v>
+        <v>0.2291677470283724</v>
       </c>
     </row>
     <row r="23">
@@ -3876,19 +3876,19 @@
         <v>2520472</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2463390</v>
+        <v>2460440</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2583297</v>
+        <v>2577831</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7321683862718</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7155865467216641</v>
+        <v>0.7147297331277245</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7504182193587796</v>
+        <v>0.7488304533256973</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4315</v>
@@ -3897,19 +3897,19 @@
         <v>3003581</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2960102</v>
+        <v>2961893</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3043513</v>
+        <v>3043865</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.8262053801937063</v>
+        <v>0.8262053801937065</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8142454463474091</v>
+        <v>0.8147380761261743</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8371896755708109</v>
+        <v>0.837286322072348</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6790</v>
@@ -3918,19 +3918,19 @@
         <v>5524053</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5449756</v>
+        <v>5455850</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5595258</v>
+        <v>5597549</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7804684378646457</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7699713555863806</v>
+        <v>0.7708322529716276</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7905286558296952</v>
+        <v>0.7908523529341046</v>
       </c>
     </row>
     <row r="24">
